--- a/doc/04_DB定義書_B2_0627_ver3.4.xlsx
+++ b/doc/04_DB定義書_B2_0627_ver3.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E58D7-3D05-4DF9-82EF-4C73B737A173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177472F6-EF6F-4960-B98A-987FD25032C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="865" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改定履歴" sheetId="20" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="326">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1677,6 +1677,16 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の目標-資格idを追加</t>
+    <rPh sb="6" eb="8">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2444,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2E3A33-F6ED-4455-BCF2-C9A5133B3FC9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2594,6 +2604,20 @@
       </c>
       <c r="D10" s="36" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A11" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44739</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3176,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3334,28 +3358,28 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="25" customFormat="1">
-      <c r="A12" s="23">
+      <c r="A12" s="39">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="39">
         <v>5</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
         <v>141</v>
       </c>
       <c r="L12" s="25" t="str">
@@ -3718,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCAD677-C280-4D12-BAB5-CD95C425CD25}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3955,25 +3979,37 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>today_target int (1)</v>
+        <v>today_target int (1),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>certification_id char (5)</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -11792,8 +11828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB340A-3D2B-4217-954F-26117B6A8BAE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11986,7 +12022,7 @@
         <v>102</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="39" t="s">
         <v>141</v>
       </c>
       <c r="L12" t="str">
@@ -12023,28 +12059,28 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23">
+      <c r="A14" s="39">
         <v>5</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="39">
         <v>5</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39" t="s">
         <v>107</v>
       </c>
       <c r="L14" t="str">
@@ -12334,12 +12370,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12457,15 +12490,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12487,10 +12524,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3641A4D-BC7B-4C32-B537-86018FD429E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F5BE5A-C9C5-465A-B2D5-E28B5DEBB874}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>